--- a/RESULTS/Test_Results.xlsx
+++ b/RESULTS/Test_Results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -463,25 +463,25 @@
         <v>Login functionality with valid and invalid credentials</v>
       </c>
       <c r="D2" t="str">
-        <v>TS001BR001</v>
+        <v>TS001TC001</v>
       </c>
       <c r="E2" t="str">
         <v>Verify the url is opened</v>
       </c>
       <c r="F2" t="str">
-        <v>TS001TC001BR001</v>
+        <v>TS001TC001TSP001</v>
       </c>
       <c r="G2" t="str">
-        <v xml:space="preserve">Open BR.NET url </v>
+        <v xml:space="preserve">Open ORACLE url </v>
       </c>
       <c r="H2" t="str">
         <v>OPEN_URL</v>
       </c>
       <c r="I2" t="str">
-        <v>https://iblbcuat.indusind.com/IndusindUAT.html</v>
+        <v>https://10.0.49.147:7504/FCJNeoWeb/SMMDIFRM.jsp</v>
       </c>
       <c r="J2" t="str">
-        <v>https://iblbcuat.indusind.com/IndusindUAT.html</v>
+        <v>https://10.0.49.147:7504/FCJNeoWeb/SMMDIFRM.jsp</v>
       </c>
       <c r="K2" t="str">
         <v xml:space="preserve">URL is opened </v>
@@ -493,7 +493,7 @@
         <v/>
       </c>
       <c r="N2" t="str">
-        <v>Opened: https://iblbcuat.indusind.com/IndusindUAT.html</v>
+        <v>Opened: https://10.0.49.147:7504/FCJNeoWeb/SMMDIFRM.jsp</v>
       </c>
       <c r="O2" t="str">
         <v>screenshots/STEP_1.png</v>
@@ -504,48 +504,39 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F3" t="str">
-        <v>TS001TC001BR002</v>
+        <v>TS001TC001TSP002</v>
       </c>
       <c r="G3" t="str">
-        <v>enter username</v>
+        <v>enter userid</v>
       </c>
       <c r="H3" t="str">
         <v>fill</v>
       </c>
       <c r="I3" t="str">
-        <v>Enter User Name</v>
+        <v>USER ID</v>
       </c>
       <c r="J3" t="str">
-        <v>SINDU</v>
+        <v>SAI_MAK</v>
       </c>
       <c r="K3" t="str">
         <v>username should be entered</v>
       </c>
       <c r="L3" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M3" t="str">
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <v>Filled: Enter User Name</v>
-      </c>
-      <c r="O3" t="str">
-        <v>screenshots/STEP_2.png</v>
-      </c>
-      <c r="P3" t="str">
-        <v>page_sources/STEP_2_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F4" t="str">
-        <v>TS001TC001BR003</v>
+        <v>TS001TC001TSP003</v>
       </c>
       <c r="G4" t="str">
         <v>Enter Password</v>
@@ -554,118 +545,112 @@
         <v>fill</v>
       </c>
       <c r="I4" t="str">
-        <v>Enter Password</v>
+        <v>Password</v>
       </c>
       <c r="J4" t="str">
-        <v>Test@123</v>
+        <v>Pranitha@25</v>
       </c>
       <c r="K4" t="str">
         <v>password should be entered</v>
       </c>
       <c r="L4" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M4" t="str">
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <v>Filled: Enter Password</v>
-      </c>
-      <c r="O4" t="str">
-        <v>screenshots/STEP_3.png</v>
-      </c>
-      <c r="P4" t="str">
-        <v>page_sources/STEP_3_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F5" t="str">
-        <v>TS001TC001BR004</v>
+        <v>TS001TC001TSP004</v>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve">Click login </v>
+        <v xml:space="preserve">Click Signin </v>
       </c>
       <c r="H5" t="str">
         <v>click</v>
       </c>
       <c r="I5" t="str">
-        <v>Login</v>
+        <v>Sign In</v>
       </c>
       <c r="K5" t="str">
-        <v>Login in button should be clicked</v>
+        <v>Sign in button should be clicked</v>
       </c>
       <c r="L5" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M5" t="str">
-        <v/>
-      </c>
-      <c r="N5" t="str">
-        <v>Clicked: Login</v>
-      </c>
-      <c r="O5" t="str">
-        <v>screenshots/STEP_4.png</v>
-      </c>
-      <c r="P5" t="str">
-        <v>page_sources/STEP_4_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F6" t="str">
-        <v>TS001TC001BR005</v>
+        <v>TS001TC001TSP005</v>
       </c>
       <c r="G6" t="str">
-        <v xml:space="preserve">Click Start </v>
+        <v xml:space="preserve">Click OK button of the information message popup window </v>
       </c>
       <c r="H6" t="str">
         <v>click</v>
       </c>
       <c r="I6" t="str">
-        <v>Click To Open</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Start button should be clicked</v>
+        <v>Ok</v>
       </c>
       <c r="L6" t="str">
-        <v>FAIL</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M6" t="str">
-        <v>page.waitForTimeout: Target page, context or browser has been closed</v>
-      </c>
-      <c r="N6" t="str">
-        <v>page.waitForTimeout: Target page, context or browser has been closed</v>
-      </c>
-      <c r="O6" t="str">
-        <v/>
-      </c>
-      <c r="P6" t="str">
-        <v/>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>YES</v>
       </c>
+      <c r="D7" t="str">
+        <v>TS001TC002</v>
+      </c>
+      <c r="E7" t="str">
+        <v>STDCIF creation</v>
+      </c>
       <c r="F7" t="str">
-        <v>TS001TC001BR006</v>
+        <v>TS001TC002TSP001</v>
       </c>
       <c r="G7" t="str">
-        <v>Click Change Branch</v>
+        <v>Enter STDCIF in the Function Id</v>
       </c>
       <c r="H7" t="str">
-        <v>click</v>
+        <v>fill</v>
       </c>
       <c r="I7" t="str">
-        <v>Change Branch</v>
+        <v>Function Id</v>
+      </c>
+      <c r="J7" t="str">
+        <v>STDCIF</v>
       </c>
       <c r="K7" t="str">
-        <v xml:space="preserve"> Change Branch be clicked</v>
+        <v>Fucntion Id should be filled with STDCIF</v>
+      </c>
+      <c r="L7" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v>Filled: Function Id</v>
+      </c>
+      <c r="O7" t="str">
+        <v>screenshots/STEP_6.png</v>
+      </c>
+      <c r="P7" t="str">
+        <v>page_sources/STEP_6_source.html</v>
       </c>
     </row>
     <row r="8">
@@ -673,22 +658,34 @@
         <v>YES</v>
       </c>
       <c r="F8" t="str">
-        <v>TS001TC001BR008</v>
+        <v>TS001TC002TSP002</v>
       </c>
       <c r="G8" t="str">
-        <v>Enter Branch ID</v>
+        <v>Click the Go button</v>
       </c>
       <c r="H8" t="str">
-        <v>fill</v>
+        <v>click</v>
       </c>
       <c r="I8" t="str">
-        <v>Branch ID</v>
-      </c>
-      <c r="J8">
-        <v>200064</v>
+        <v>Go</v>
       </c>
       <c r="K8" t="str">
-        <v>Branch ID should be entered</v>
+        <v xml:space="preserve">GO button should be clicked </v>
+      </c>
+      <c r="L8" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v>Clicked: Go</v>
+      </c>
+      <c r="O8" t="str">
+        <v>screenshots/STEP_7.png</v>
+      </c>
+      <c r="P8" t="str">
+        <v>page_sources/STEP_7_source.html</v>
       </c>
     </row>
     <row r="9">
@@ -696,19 +693,34 @@
         <v>YES</v>
       </c>
       <c r="F9" t="str">
-        <v>TS001TC001BR008</v>
+        <v>TS001TC002TSP003</v>
       </c>
       <c r="G9" t="str">
-        <v>Click Ok</v>
+        <v xml:space="preserve">Click Enter Query </v>
       </c>
       <c r="H9" t="str">
         <v>click</v>
       </c>
       <c r="I9" t="str">
-        <v>Ok</v>
+        <v>Enter Query</v>
       </c>
       <c r="K9" t="str">
-        <v>Ok should be entered</v>
+        <v xml:space="preserve">New should be clicked </v>
+      </c>
+      <c r="L9" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M9" t="str">
+        <v>page.waitForTimeout: Target page, context or browser has been closed</v>
+      </c>
+      <c r="N9" t="str">
+        <v>page.waitForTimeout: Target page, context or browser has been closed</v>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -716,19 +728,19 @@
         <v>YES</v>
       </c>
       <c r="F10" t="str">
-        <v>TS001TC001BR009</v>
+        <v>TS001TC002TSP004</v>
       </c>
       <c r="G10" t="str">
-        <v xml:space="preserve">Click Start </v>
+        <v>On the customer No. field Click on "P" to generate customer no</v>
       </c>
       <c r="H10" t="str">
         <v>click</v>
       </c>
       <c r="I10" t="str">
-        <v>Click To Open</v>
+        <v>P</v>
       </c>
       <c r="K10" t="str">
-        <v>Start button should be clicked</v>
+        <v>P should be clicked and Customer No should be generated</v>
       </c>
     </row>
     <row r="11">
@@ -736,19 +748,22 @@
         <v>YES</v>
       </c>
       <c r="F11" t="str">
-        <v>TS001TC001BR010</v>
+        <v>TS001TC002TSP005</v>
       </c>
       <c r="G11" t="str">
-        <v>Click Advance &amp; Collateral</v>
+        <v xml:space="preserve">enter full name </v>
       </c>
       <c r="H11" t="str">
-        <v>click</v>
+        <v>fill</v>
       </c>
       <c r="I11" t="str">
-        <v>Advance &amp; Collateral</v>
+        <v>Full Name</v>
+      </c>
+      <c r="J11" t="str">
+        <v>AUTO24</v>
       </c>
       <c r="K11" t="str">
-        <v>Advance &amp; Collateralshould be clicked</v>
+        <v xml:space="preserve">First name should be filled </v>
       </c>
     </row>
     <row r="12">
@@ -756,19 +771,22 @@
         <v>YES</v>
       </c>
       <c r="F12" t="str">
-        <v>TS001TC001BR011</v>
+        <v>TS001TC002TSP006</v>
       </c>
       <c r="G12" t="str">
-        <v>Click Loan Maintenance</v>
+        <v>enter short name</v>
       </c>
       <c r="H12" t="str">
-        <v>click</v>
+        <v>fill</v>
       </c>
       <c r="I12" t="str">
-        <v>Loan Maintenance</v>
+        <v>Short Name</v>
+      </c>
+      <c r="J12" t="str">
+        <v>UAT24</v>
       </c>
       <c r="K12" t="str">
-        <v>Loan Maintenance shold be clicked</v>
+        <v xml:space="preserve">Short namae should be filled </v>
       </c>
     </row>
     <row r="13">
@@ -776,22 +794,22 @@
         <v>YES</v>
       </c>
       <c r="F13" t="str">
-        <v>TS001TC001BR012</v>
+        <v>TS001TC002TSP007</v>
       </c>
       <c r="G13" t="str">
-        <v>Enter Account ID</v>
+        <v>enter customer category</v>
       </c>
       <c r="H13" t="str">
         <v>fill</v>
       </c>
       <c r="I13" t="str">
-        <v>Account ID</v>
+        <v>Customer Category</v>
       </c>
       <c r="J13" t="str">
-        <v>2000640070000010</v>
+        <v>INDIVIDUAL</v>
       </c>
       <c r="K13" t="str">
-        <v>Account ID should be entered</v>
+        <v>Customer category  should be filled</v>
       </c>
     </row>
     <row r="14">
@@ -799,24 +817,601 @@
         <v>YES</v>
       </c>
       <c r="F14" t="str">
-        <v>TS001TC001BR013</v>
+        <v>TS001TC002TSP008</v>
       </c>
       <c r="G14" t="str">
-        <v>Click View</v>
+        <v>enter address 1</v>
       </c>
       <c r="H14" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Address 1</v>
+      </c>
+      <c r="J14" t="str">
+        <v>MASERU,LESOTHO</v>
+      </c>
+      <c r="K14" t="str">
+        <v xml:space="preserve">Address1 should be filled </v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>YES</v>
+      </c>
+      <c r="F15" t="str">
+        <v>TS001TC002TSP009</v>
+      </c>
+      <c r="G15" t="str">
+        <v>enter country</v>
+      </c>
+      <c r="H15" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Country</v>
+      </c>
+      <c r="J15" t="str">
+        <v>LS</v>
+      </c>
+      <c r="K15" t="str">
+        <v xml:space="preserve">Country should be filled </v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>YES</v>
+      </c>
+      <c r="F16" t="str">
+        <v>TS001TC002TSP010</v>
+      </c>
+      <c r="G16" t="str">
+        <v>enter nationality</v>
+      </c>
+      <c r="H16" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Nationality</v>
+      </c>
+      <c r="J16" t="str">
+        <v>LS</v>
+      </c>
+      <c r="K16" t="str">
+        <v xml:space="preserve">Nationality should be filled </v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>YES</v>
+      </c>
+      <c r="F17" t="str">
+        <v>TS001TC002TSP011</v>
+      </c>
+      <c r="G17" t="str">
+        <v>select gender</v>
+      </c>
+      <c r="H17" t="str">
         <v>click</v>
       </c>
-      <c r="I14" t="str">
-        <v>View</v>
-      </c>
-      <c r="K14" t="str">
-        <v>View should be clicked</v>
+      <c r="I17" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="J17" t="str">
+        <v>MALE</v>
+      </c>
+      <c r="K17" t="str">
+        <v xml:space="preserve">Gender should clicked </v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>YES</v>
+      </c>
+      <c r="F18" t="str">
+        <v>TS001TC002TSP012</v>
+      </c>
+      <c r="G18" t="str">
+        <v>enter date of birth</v>
+      </c>
+      <c r="H18" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Date of Birth</v>
+      </c>
+      <c r="J18" t="str">
+        <v>2001-11-12</v>
+      </c>
+      <c r="K18" t="str">
+        <v xml:space="preserve">DOB should be entered </v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>YES</v>
+      </c>
+      <c r="F19" t="str">
+        <v>TS001TC002TSP013</v>
+      </c>
+      <c r="G19" t="str">
+        <v>select language</v>
+      </c>
+      <c r="H19" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Language</v>
+      </c>
+      <c r="J19" t="str">
+        <v>ENG</v>
+      </c>
+      <c r="K19" t="str">
+        <v xml:space="preserve">Language should be entered </v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>YES</v>
+      </c>
+      <c r="F20" t="str">
+        <v>TS001TC002TSP014</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Click the additional button</v>
+      </c>
+      <c r="H20" t="str">
+        <v>click</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Additional</v>
+      </c>
+      <c r="K20" t="str">
+        <v xml:space="preserve">Additional should be clicked </v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>YES</v>
+      </c>
+      <c r="F21" t="str">
+        <v>TS001TC002TSP015</v>
+      </c>
+      <c r="G21" t="str">
+        <v>enter location</v>
+      </c>
+      <c r="H21" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Location</v>
+      </c>
+      <c r="J21" t="str">
+        <v>MSU</v>
+      </c>
+      <c r="K21" t="str">
+        <v xml:space="preserve">Location should be filled </v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>YES</v>
+      </c>
+      <c r="F22" t="str">
+        <v>TS001TC002TSP016</v>
+      </c>
+      <c r="G22" t="str">
+        <v>enter media</v>
+      </c>
+      <c r="H22" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Media</v>
+      </c>
+      <c r="J22" t="str">
+        <v>RTGS</v>
+      </c>
+      <c r="K22" t="str">
+        <v xml:space="preserve">Media should be filled </v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>YES</v>
+      </c>
+      <c r="F23" t="str">
+        <v>TS001TC002TSP017</v>
+      </c>
+      <c r="G23" t="str">
+        <v xml:space="preserve">click on save </v>
+      </c>
+      <c r="H23" t="str">
+        <v>click</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Save</v>
+      </c>
+      <c r="K23" t="str">
+        <v xml:space="preserve">Save should be clicked </v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>YES</v>
+      </c>
+      <c r="F24" t="str">
+        <v>TS001TC002TSP018</v>
+      </c>
+      <c r="G24" t="str">
+        <v xml:space="preserve">Click  accept </v>
+      </c>
+      <c r="H24" t="str">
+        <v>click</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Accept</v>
+      </c>
+      <c r="K24" t="str">
+        <v xml:space="preserve">Accept should be clicked </v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F25" t="str">
+        <v>TS001TC002TSP003</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Click Enter Query</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Click</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Enter Query</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Enter Query</v>
+      </c>
+      <c r="K25" t="str">
+        <v xml:space="preserve">Enter Query should be clicked </v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F26" t="str">
+        <v>TS001TC002TSP004</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Enter Customer No</v>
+      </c>
+      <c r="H26" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Customer No</v>
+      </c>
+      <c r="J26">
+        <v>10381197</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Customer number should be entered</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F27" t="str">
+        <v>TS001TC002TSP005</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Enter Currency</v>
+      </c>
+      <c r="H27" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Currency</v>
+      </c>
+      <c r="J27" t="str">
+        <v>LSL</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Currency should be entered</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F28" t="str">
+        <v>TS001TC002TSP006</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Enter Account Class</v>
+      </c>
+      <c r="H28" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Account Class</v>
+      </c>
+      <c r="J28">
+        <v>120</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Account class should be entered</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F29" t="str">
+        <v>TS001TC002TSP007</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Click Fetch and the account number is displayed on screen</v>
+      </c>
+      <c r="H29" t="str">
+        <v>click</v>
+      </c>
+      <c r="I29" t="str">
+        <v>button</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Fetch button should be clicked</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F30" t="str">
+        <v>TS001TC002TSP008</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Enter Location</v>
+      </c>
+      <c r="H30" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Location</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Location should be entered</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F31" t="str">
+        <v>TS001TC002TSP009</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Enter Media</v>
+      </c>
+      <c r="H31" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Media</v>
+      </c>
+      <c r="J31" t="str">
+        <v>RTGS</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Media should be entered</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F32" t="str">
+        <v>TS001TC002TSP010</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Select MIS tab and enter Pool Code</v>
+      </c>
+      <c r="H32" t="str">
+        <v>fill</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Pool Code</v>
+      </c>
+      <c r="J32" t="str">
+        <v>DFLTPOOL</v>
+      </c>
+      <c r="K32" t="str">
+        <v xml:space="preserve">Pool code should be entered </v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F33" t="str">
+        <v>TS001TC002TSP011</v>
+      </c>
+      <c r="G33" t="str">
+        <v xml:space="preserve">Click on save and select accept </v>
+      </c>
+      <c r="H33" t="str">
+        <v>click</v>
+      </c>
+      <c r="I33" t="str">
+        <v>button</v>
+      </c>
+      <c r="K33" t="str">
+        <v xml:space="preserve">Save and Select accept should be clicked </v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>NO</v>
+      </c>
+      <c r="B34" t="str">
+        <v>TS002</v>
+      </c>
+      <c r="D34" t="str">
+        <v>TS111TC001</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Flipkart</v>
+      </c>
+      <c r="F34" t="str">
+        <v>TS111TC001TSP001</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Open the url</v>
+      </c>
+      <c r="H34" t="str">
+        <v>OPEN_URL</v>
+      </c>
+      <c r="I34" t="str">
+        <v>https://www.flipkart.com/</v>
+      </c>
+      <c r="J34" t="str">
+        <v>https://www.flipkart.com/</v>
+      </c>
+      <c r="K34" t="str">
+        <v>URL should be opened</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F35" t="str">
+        <v>TS111TC001TSP002</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Click Login</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Click</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Login</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Login should be clicked</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F36" t="str">
+        <v>TS111TC001TSP003</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Click Men</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Click</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Men</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Men should be clicked</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F37" t="str">
+        <v>TS111TC001TSP004</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Click Running Shoes</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Click</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Running Shoes</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Running shoes should be clicked</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F38" t="str">
+        <v>TS111TC001TSP005</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Click COLOR</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Click</v>
+      </c>
+      <c r="I38" t="str">
+        <v>COLOR</v>
+      </c>
+      <c r="K38" t="str">
+        <v xml:space="preserve">COLOR should be clicked </v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F39" t="str">
+        <v>TS111TC001TSP006</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Click Blue</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Click</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Blue should be selected</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>NO</v>
+      </c>
+      <c r="F40" t="str">
+        <v>TS111TC001TSP007</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Click BestSeller</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Click</v>
+      </c>
+      <c r="I40" t="str">
+        <v>BestSeller</v>
+      </c>
+      <c r="K40" t="str">
+        <v xml:space="preserve">Best seller product should be clicked </v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P40"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/RESULTS/Test_Results.xlsx
+++ b/RESULTS/Test_Results.xlsx
@@ -711,16 +711,16 @@
         <v>FAIL</v>
       </c>
       <c r="M9" t="str">
-        <v>page.waitForTimeout: Target page, context or browser has been closed</v>
+        <v>Could not click element</v>
       </c>
       <c r="N9" t="str">
-        <v>page.waitForTimeout: Target page, context or browser has been closed</v>
+        <v>Failed to click: Enter Query</v>
       </c>
       <c r="O9" t="str">
-        <v/>
+        <v>screenshots/STEP_8.png</v>
       </c>
       <c r="P9" t="str">
-        <v/>
+        <v>page_sources/STEP_8_source.html</v>
       </c>
     </row>
     <row r="10">

--- a/RESULTS/Test_Results.xlsx
+++ b/RESULTS/Test_Results.xlsx
@@ -717,10 +717,10 @@
         <v>Failed to click: New</v>
       </c>
       <c r="O9" t="str">
-        <v>screenshots/STEP_8.png</v>
+        <v/>
       </c>
       <c r="P9" t="str">
-        <v>page_sources/STEP_8_source.html</v>
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -742,6 +742,21 @@
       <c r="K10" t="str">
         <v>P should be clicked and Customer No should be generated</v>
       </c>
+      <c r="L10" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M10" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N10" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -765,6 +780,21 @@
       <c r="K11" t="str">
         <v xml:space="preserve">First name should be filled </v>
       </c>
+      <c r="L11" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M11" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N11" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -788,6 +818,21 @@
       <c r="K12" t="str">
         <v xml:space="preserve">Short namae should be filled </v>
       </c>
+      <c r="L12" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M12" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N12" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -811,6 +856,21 @@
       <c r="K13" t="str">
         <v>Customer category  should be filled</v>
       </c>
+      <c r="L13" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M13" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N13" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -834,6 +894,21 @@
       <c r="K14" t="str">
         <v xml:space="preserve">Address1 should be filled </v>
       </c>
+      <c r="L14" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M14" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N14" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -857,6 +932,21 @@
       <c r="K15" t="str">
         <v xml:space="preserve">Country should be filled </v>
       </c>
+      <c r="L15" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M15" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N15" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -880,6 +970,21 @@
       <c r="K16" t="str">
         <v xml:space="preserve">Nationality should be filled </v>
       </c>
+      <c r="L16" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M16" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N16" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -903,6 +1008,21 @@
       <c r="K17" t="str">
         <v xml:space="preserve">Gender should clicked </v>
       </c>
+      <c r="L17" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M17" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N17" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -926,6 +1046,21 @@
       <c r="K18" t="str">
         <v xml:space="preserve">DOB should be entered </v>
       </c>
+      <c r="L18" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M18" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N18" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -949,6 +1084,21 @@
       <c r="K19" t="str">
         <v xml:space="preserve">Language should be entered </v>
       </c>
+      <c r="L19" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M19" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N19" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -969,6 +1119,21 @@
       <c r="K20" t="str">
         <v xml:space="preserve">Additional should be clicked </v>
       </c>
+      <c r="L20" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M20" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N20" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -992,6 +1157,21 @@
       <c r="K21" t="str">
         <v xml:space="preserve">Location should be filled </v>
       </c>
+      <c r="L21" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M21" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N21" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1015,6 +1195,21 @@
       <c r="K22" t="str">
         <v xml:space="preserve">Media should be filled </v>
       </c>
+      <c r="L22" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M22" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N22" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1035,6 +1230,21 @@
       <c r="K23" t="str">
         <v xml:space="preserve">Save should be clicked </v>
       </c>
+      <c r="L23" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M23" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N23" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -1055,6 +1265,21 @@
       <c r="K24" t="str">
         <v xml:space="preserve">Accept should be clicked </v>
       </c>
+      <c r="L24" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M24" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="N24" t="str">
+        <v>No valid page available</v>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1075,6 +1300,12 @@
       <c r="K25" t="str">
         <v xml:space="preserve">Enter Query should be clicked </v>
       </c>
+      <c r="L25" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M25" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1098,6 +1329,12 @@
       <c r="K26" t="str">
         <v>Customer number should be entered</v>
       </c>
+      <c r="L26" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M26" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1121,6 +1358,12 @@
       <c r="K27" t="str">
         <v>Currency should be entered</v>
       </c>
+      <c r="L27" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M27" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1144,6 +1387,12 @@
       <c r="K28" t="str">
         <v>Account class should be entered</v>
       </c>
+      <c r="L28" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M28" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1164,6 +1413,12 @@
       <c r="K29" t="str">
         <v>Fetch button should be clicked</v>
       </c>
+      <c r="L29" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M29" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1187,6 +1442,12 @@
       <c r="K30" t="str">
         <v>Location should be entered</v>
       </c>
+      <c r="L30" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M30" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1210,6 +1471,12 @@
       <c r="K31" t="str">
         <v>Media should be entered</v>
       </c>
+      <c r="L31" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M31" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1233,6 +1500,12 @@
       <c r="K32" t="str">
         <v xml:space="preserve">Pool code should be entered </v>
       </c>
+      <c r="L32" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M32" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1253,6 +1526,12 @@
       <c r="K33" t="str">
         <v xml:space="preserve">Save and Select accept should be clicked </v>
       </c>
+      <c r="L33" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M33" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1285,6 +1564,12 @@
       <c r="K34" t="str">
         <v>URL should be opened</v>
       </c>
+      <c r="L34" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M34" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1305,6 +1590,12 @@
       <c r="K35" t="str">
         <v>Login should be clicked</v>
       </c>
+      <c r="L35" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M35" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1325,6 +1616,12 @@
       <c r="K36" t="str">
         <v>Men should be clicked</v>
       </c>
+      <c r="L36" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M36" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1345,6 +1642,12 @@
       <c r="K37" t="str">
         <v>Running shoes should be clicked</v>
       </c>
+      <c r="L37" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M37" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1365,6 +1668,12 @@
       <c r="K38" t="str">
         <v xml:space="preserve">COLOR should be clicked </v>
       </c>
+      <c r="L38" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M38" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1385,6 +1694,12 @@
       <c r="K39" t="str">
         <v>Blue should be selected</v>
       </c>
+      <c r="L39" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M39" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1404,6 +1719,12 @@
       </c>
       <c r="K40" t="str">
         <v xml:space="preserve">Best seller product should be clicked </v>
+      </c>
+      <c r="L40" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M40" t="str">
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS/Test_Results.xlsx
+++ b/RESULTS/Test_Results.xlsx
@@ -487,19 +487,19 @@
         <v xml:space="preserve">URL is opened </v>
       </c>
       <c r="L2" t="str">
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="M2" t="str">
+        <v>Cannot read properties of null (reading 'isClosed')</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Cannot read properties of null (reading 'isClosed')</v>
+      </c>
+      <c r="O2" t="str">
         <v/>
       </c>
-      <c r="N2" t="str">
-        <v>Opened: https://10.0.49.147:7504/FCJNeoWeb/SMMDIFRM.jsp</v>
-      </c>
-      <c r="O2" t="str">
-        <v>screenshots/STEP_1.png</v>
-      </c>
       <c r="P2" t="str">
-        <v>page_sources/STEP_1_source.html</v>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -524,12 +524,6 @@
       <c r="K3" t="str">
         <v>username should be entered</v>
       </c>
-      <c r="L3" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M3" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -553,12 +547,6 @@
       <c r="K4" t="str">
         <v>password should be entered</v>
       </c>
-      <c r="L4" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M4" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -579,12 +567,6 @@
       <c r="K5" t="str">
         <v>Sign in button should be clicked</v>
       </c>
-      <c r="L5" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M5" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -602,12 +584,6 @@
       <c r="I6" t="str">
         <v>Ok</v>
       </c>
-      <c r="L6" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M6" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -637,21 +613,6 @@
       <c r="K7" t="str">
         <v>Fucntion Id should be filled with STDCIF</v>
       </c>
-      <c r="L7" t="str">
-        <v>PASS</v>
-      </c>
-      <c r="M7" t="str">
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <v>Filled: Function Id</v>
-      </c>
-      <c r="O7" t="str">
-        <v>screenshots/STEP_6.png</v>
-      </c>
-      <c r="P7" t="str">
-        <v>page_sources/STEP_6_source.html</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -672,21 +633,6 @@
       <c r="K8" t="str">
         <v xml:space="preserve">GO button should be clicked </v>
       </c>
-      <c r="L8" t="str">
-        <v>PASS</v>
-      </c>
-      <c r="M8" t="str">
-        <v/>
-      </c>
-      <c r="N8" t="str">
-        <v>Clicked: Go</v>
-      </c>
-      <c r="O8" t="str">
-        <v>screenshots/STEP_7.png</v>
-      </c>
-      <c r="P8" t="str">
-        <v>page_sources/STEP_7_source.html</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -706,21 +652,6 @@
       </c>
       <c r="K9" t="str">
         <v xml:space="preserve">New should be clicked </v>
-      </c>
-      <c r="L9" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="M9" t="str">
-        <v>Could not click element</v>
-      </c>
-      <c r="N9" t="str">
-        <v>Failed to click: New</v>
-      </c>
-      <c r="O9" t="str">
-        <v/>
-      </c>
-      <c r="P9" t="str">
-        <v/>
       </c>
     </row>
     <row r="10">

--- a/RESULTS/Test_Results.xlsx
+++ b/RESULTS/Test_Results.xlsx
@@ -454,7 +454,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="B2" t="str">
         <v>TS001</v>
@@ -487,19 +487,10 @@
         <v xml:space="preserve">URL is opened </v>
       </c>
       <c r="L2" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M2" t="str">
-        <v/>
-      </c>
-      <c r="N2" t="str">
-        <v>Opened: https://10.0.49.147:7504/FCJNeoWeb/SMMDIFRM.jsp</v>
-      </c>
-      <c r="O2" t="str">
-        <v>screenshots/STEP_1.png</v>
-      </c>
-      <c r="P2" t="str">
-        <v>page_sources/STEP_1_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="3">
@@ -611,7 +602,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="D7" t="str">
         <v>TS001TC002</v>
@@ -638,24 +629,15 @@
         <v>Fucntion Id should be filled with STDCIF</v>
       </c>
       <c r="L7" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M7" t="str">
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <v>Filled: Function Id</v>
-      </c>
-      <c r="O7" t="str">
-        <v>screenshots/STEP_6.png</v>
-      </c>
-      <c r="P7" t="str">
-        <v>page_sources/STEP_6_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F8" t="str">
         <v>TS001TC002TSP002</v>
@@ -673,24 +655,15 @@
         <v xml:space="preserve">GO button should be clicked </v>
       </c>
       <c r="L8" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M8" t="str">
-        <v/>
-      </c>
-      <c r="N8" t="str">
-        <v>Clicked: Go</v>
-      </c>
-      <c r="O8" t="str">
-        <v>screenshots/STEP_7.png</v>
-      </c>
-      <c r="P8" t="str">
-        <v>page_sources/STEP_7_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F9" t="str">
         <v>TS001TC002TSP003</v>
@@ -708,24 +681,15 @@
         <v xml:space="preserve">New should be clicked </v>
       </c>
       <c r="L9" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M9" t="str">
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <v>Clicked: New</v>
-      </c>
-      <c r="O9" t="str">
-        <v>screenshots/STEP_8.png</v>
-      </c>
-      <c r="P9" t="str">
-        <v>page_sources/STEP_8_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F10" t="str">
         <v>TS001TC002TSP004</v>
@@ -743,24 +707,15 @@
         <v>P should be clicked and Customer No should be generated</v>
       </c>
       <c r="L10" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M10" t="str">
-        <v/>
-      </c>
-      <c r="N10" t="str">
-        <v>Clicked: P</v>
-      </c>
-      <c r="O10" t="str">
-        <v>screenshots/STEP_9.png</v>
-      </c>
-      <c r="P10" t="str">
-        <v>page_sources/STEP_9_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F11" t="str">
         <v>TS001TC002TSP005</v>
@@ -781,24 +736,15 @@
         <v xml:space="preserve">First name should be filled </v>
       </c>
       <c r="L11" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M11" t="str">
-        <v/>
-      </c>
-      <c r="N11" t="str">
-        <v>Filled: Full Name</v>
-      </c>
-      <c r="O11" t="str">
-        <v>screenshots/STEP_10.png</v>
-      </c>
-      <c r="P11" t="str">
-        <v>page_sources/STEP_10_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F12" t="str">
         <v>TS001TC002TSP006</v>
@@ -819,24 +765,15 @@
         <v xml:space="preserve">Short namae should be filled </v>
       </c>
       <c r="L12" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M12" t="str">
-        <v/>
-      </c>
-      <c r="N12" t="str">
-        <v>Filled: Short Name</v>
-      </c>
-      <c r="O12" t="str">
-        <v>screenshots/STEP_11.png</v>
-      </c>
-      <c r="P12" t="str">
-        <v>page_sources/STEP_11_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F13" t="str">
         <v>TS001TC002TSP007</v>
@@ -857,24 +794,15 @@
         <v>Customer category  should be filled</v>
       </c>
       <c r="L13" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M13" t="str">
-        <v/>
-      </c>
-      <c r="N13" t="str">
-        <v>Filled: Customer Category</v>
-      </c>
-      <c r="O13" t="str">
-        <v>screenshots/STEP_12.png</v>
-      </c>
-      <c r="P13" t="str">
-        <v>page_sources/STEP_12_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F14" t="str">
         <v>TS001TC002TSP008</v>
@@ -895,24 +823,15 @@
         <v xml:space="preserve">Address1 should be filled </v>
       </c>
       <c r="L14" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M14" t="str">
-        <v/>
-      </c>
-      <c r="N14" t="str">
-        <v>Filled: Address 1</v>
-      </c>
-      <c r="O14" t="str">
-        <v>screenshots/STEP_13.png</v>
-      </c>
-      <c r="P14" t="str">
-        <v>page_sources/STEP_13_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F15" t="str">
         <v>TS001TC002TSP009</v>
@@ -933,24 +852,15 @@
         <v xml:space="preserve">Country should be filled </v>
       </c>
       <c r="L15" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M15" t="str">
-        <v/>
-      </c>
-      <c r="N15" t="str">
-        <v>Filled: Country</v>
-      </c>
-      <c r="O15" t="str">
-        <v>screenshots/STEP_14.png</v>
-      </c>
-      <c r="P15" t="str">
-        <v>page_sources/STEP_14_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F16" t="str">
         <v>TS001TC002TSP010</v>
@@ -971,24 +881,15 @@
         <v xml:space="preserve">Nationality should be filled </v>
       </c>
       <c r="L16" t="str">
-        <v>PASS</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M16" t="str">
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <v>Filled: Nationality</v>
-      </c>
-      <c r="O16" t="str">
-        <v>screenshots/STEP_15.png</v>
-      </c>
-      <c r="P16" t="str">
-        <v>page_sources/STEP_15_source.html</v>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F17" t="str">
         <v>TS001TC002TSP011</v>
@@ -1009,24 +910,15 @@
         <v xml:space="preserve">Gender should clicked </v>
       </c>
       <c r="L17" t="str">
-        <v>FAIL</v>
+        <v>SKIPPED</v>
       </c>
       <c r="M17" t="str">
-        <v>Could not click element</v>
-      </c>
-      <c r="N17" t="str">
-        <v>Failed to click: Gender</v>
-      </c>
-      <c r="O17" t="str">
-        <v/>
-      </c>
-      <c r="P17" t="str">
-        <v/>
+        <v>TO BE EXECUTED = NO</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F18" t="str">
         <v>TS001TC002TSP012</v>
@@ -1046,10 +938,16 @@
       <c r="K18" t="str">
         <v xml:space="preserve">DOB should be entered </v>
       </c>
+      <c r="L18" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M18" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F19" t="str">
         <v>TS001TC002TSP013</v>
@@ -1069,10 +967,16 @@
       <c r="K19" t="str">
         <v xml:space="preserve">Language should be entered </v>
       </c>
+      <c r="L19" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M19" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F20" t="str">
         <v>TS001TC002TSP014</v>
@@ -1089,10 +993,16 @@
       <c r="K20" t="str">
         <v xml:space="preserve">Additional should be clicked </v>
       </c>
+      <c r="L20" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M20" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F21" t="str">
         <v>TS001TC002TSP015</v>
@@ -1112,10 +1022,16 @@
       <c r="K21" t="str">
         <v xml:space="preserve">Location should be filled </v>
       </c>
+      <c r="L21" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M21" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F22" t="str">
         <v>TS001TC002TSP016</v>
@@ -1135,10 +1051,16 @@
       <c r="K22" t="str">
         <v xml:space="preserve">Media should be filled </v>
       </c>
+      <c r="L22" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M22" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F23" t="str">
         <v>TS001TC002TSP017</v>
@@ -1155,10 +1077,16 @@
       <c r="K23" t="str">
         <v xml:space="preserve">Save should be clicked </v>
       </c>
+      <c r="L23" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M23" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="F24" t="str">
         <v>TS001TC002TSP018</v>
@@ -1175,6 +1103,12 @@
       <c r="K24" t="str">
         <v xml:space="preserve">Accept should be clicked </v>
       </c>
+      <c r="L24" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M24" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1195,6 +1129,12 @@
       <c r="K25" t="str">
         <v xml:space="preserve">Enter Query should be clicked </v>
       </c>
+      <c r="L25" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M25" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1218,6 +1158,12 @@
       <c r="K26" t="str">
         <v>Customer number should be entered</v>
       </c>
+      <c r="L26" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M26" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1241,6 +1187,12 @@
       <c r="K27" t="str">
         <v>Currency should be entered</v>
       </c>
+      <c r="L27" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M27" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1264,6 +1216,12 @@
       <c r="K28" t="str">
         <v>Account class should be entered</v>
       </c>
+      <c r="L28" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M28" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1284,6 +1242,12 @@
       <c r="K29" t="str">
         <v>Fetch button should be clicked</v>
       </c>
+      <c r="L29" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M29" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1307,6 +1271,12 @@
       <c r="K30" t="str">
         <v>Location should be entered</v>
       </c>
+      <c r="L30" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M30" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1330,6 +1300,12 @@
       <c r="K31" t="str">
         <v>Media should be entered</v>
       </c>
+      <c r="L31" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M31" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1353,6 +1329,12 @@
       <c r="K32" t="str">
         <v xml:space="preserve">Pool code should be entered </v>
       </c>
+      <c r="L32" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M32" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1373,10 +1355,16 @@
       <c r="K33" t="str">
         <v xml:space="preserve">Save and Select accept should be clicked </v>
       </c>
+      <c r="L33" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M33" t="str">
+        <v>TO BE EXECUTED = NO</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="B34" t="str">
         <v>TS002</v>
@@ -1405,10 +1393,25 @@
       <c r="K34" t="str">
         <v>URL should be opened</v>
       </c>
+      <c r="L34" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M34" t="str">
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <v>Opened: https://www.flipkart.com/</v>
+      </c>
+      <c r="O34" t="str">
+        <v>screenshots/STEP_33.png</v>
+      </c>
+      <c r="P34" t="str">
+        <v>page_sources/STEP_33_source.html</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F35" t="str">
         <v>TS111TC001TSP002</v>
@@ -1425,10 +1428,25 @@
       <c r="K35" t="str">
         <v>Login should be clicked</v>
       </c>
+      <c r="L35" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M35" t="str">
+        <v/>
+      </c>
+      <c r="N35" t="str">
+        <v>Clicked: Login</v>
+      </c>
+      <c r="O35" t="str">
+        <v>screenshots/STEP_34.png</v>
+      </c>
+      <c r="P35" t="str">
+        <v>page_sources/STEP_34_source.html</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F36" t="str">
         <v>TS111TC001TSP003</v>
@@ -1445,10 +1463,25 @@
       <c r="K36" t="str">
         <v>Men should be clicked</v>
       </c>
+      <c r="L36" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M36" t="str">
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <v>Clicked: Men</v>
+      </c>
+      <c r="O36" t="str">
+        <v>screenshots/STEP_35.png</v>
+      </c>
+      <c r="P36" t="str">
+        <v>page_sources/STEP_35_source.html</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F37" t="str">
         <v>TS111TC001TSP004</v>
@@ -1465,10 +1498,25 @@
       <c r="K37" t="str">
         <v>Running shoes should be clicked</v>
       </c>
+      <c r="L37" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M37" t="str">
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <v>Clicked: Running Shoes</v>
+      </c>
+      <c r="O37" t="str">
+        <v>screenshots/STEP_36.png</v>
+      </c>
+      <c r="P37" t="str">
+        <v>page_sources/STEP_36_source.html</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F38" t="str">
         <v>TS111TC001TSP005</v>
@@ -1485,10 +1533,25 @@
       <c r="K38" t="str">
         <v xml:space="preserve">COLOR should be clicked </v>
       </c>
+      <c r="L38" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M38" t="str">
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <v>Clicked: COLOR</v>
+      </c>
+      <c r="O38" t="str">
+        <v>screenshots/STEP_37.png</v>
+      </c>
+      <c r="P38" t="str">
+        <v>page_sources/STEP_37_source.html</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F39" t="str">
         <v>TS111TC001TSP006</v>
@@ -1505,10 +1568,25 @@
       <c r="K39" t="str">
         <v>Blue should be selected</v>
       </c>
+      <c r="L39" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M39" t="str">
+        <v>Could not click element</v>
+      </c>
+      <c r="N39" t="str">
+        <v>Failed to click: Blue</v>
+      </c>
+      <c r="O39" t="str">
+        <v>screenshots/STEP_38.png</v>
+      </c>
+      <c r="P39" t="str">
+        <v>page_sources/STEP_38_source.html</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F40" t="str">
         <v>TS111TC001TSP007</v>
@@ -1524,6 +1602,21 @@
       </c>
       <c r="K40" t="str">
         <v xml:space="preserve">Best seller product should be clicked </v>
+      </c>
+      <c r="L40" t="str">
+        <v>FAIL</v>
+      </c>
+      <c r="M40" t="str">
+        <v>Could not click element</v>
+      </c>
+      <c r="N40" t="str">
+        <v>Failed to click: BestSeller</v>
+      </c>
+      <c r="O40" t="str">
+        <v>screenshots/STEP_39.png</v>
+      </c>
+      <c r="P40" t="str">
+        <v>page_sources/STEP_39_source.html</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS/Test_Results.xlsx
+++ b/RESULTS/Test_Results.xlsx
@@ -454,7 +454,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="B2" t="str">
         <v>TS001</v>
@@ -487,15 +487,24 @@
         <v xml:space="preserve">URL is opened </v>
       </c>
       <c r="L2" t="str">
-        <v>SKIPPED</v>
+        <v>PASS</v>
       </c>
       <c r="M2" t="str">
-        <v>TO BE EXECUTED = NO</v>
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v>Opened: https://10.0.49.147:7504/FCJNeoWeb/SMMDIFRM.jsp</v>
+      </c>
+      <c r="O2" t="str">
+        <v>screenshots/STEP_1.png</v>
+      </c>
+      <c r="P2" t="str">
+        <v>page_sources/STEP_1_source.html</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F3" t="str">
         <v>TS001TC001TSP002</v>
@@ -516,15 +525,24 @@
         <v>username should be entered</v>
       </c>
       <c r="L3" t="str">
-        <v>SKIPPED</v>
+        <v>PASS</v>
       </c>
       <c r="M3" t="str">
-        <v>TO BE EXECUTED = NO</v>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v>Filled: USER ID</v>
+      </c>
+      <c r="O3" t="str">
+        <v>screenshots/STEP_2.png</v>
+      </c>
+      <c r="P3" t="str">
+        <v>page_sources/STEP_2_source.html</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F4" t="str">
         <v>TS001TC001TSP003</v>
@@ -545,15 +563,24 @@
         <v>password should be entered</v>
       </c>
       <c r="L4" t="str">
-        <v>SKIPPED</v>
+        <v>PASS</v>
       </c>
       <c r="M4" t="str">
-        <v>TO BE EXECUTED = NO</v>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v>Filled: Password</v>
+      </c>
+      <c r="O4" t="str">
+        <v>screenshots/STEP_3.png</v>
+      </c>
+      <c r="P4" t="str">
+        <v>page_sources/STEP_3_source.html</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F5" t="str">
         <v>TS001TC001TSP004</v>
@@ -570,16 +597,10 @@
       <c r="K5" t="str">
         <v>Sign in button should be clicked</v>
       </c>
-      <c r="L5" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M5" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F6" t="str">
         <v>TS001TC001TSP005</v>
@@ -593,16 +614,10 @@
       <c r="I6" t="str">
         <v>Ok</v>
       </c>
-      <c r="L6" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M6" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="D7" t="str">
         <v>TS001TC002</v>
@@ -628,16 +643,10 @@
       <c r="K7" t="str">
         <v>Fucntion Id should be filled with STDCIF</v>
       </c>
-      <c r="L7" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M7" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F8" t="str">
         <v>TS001TC002TSP002</v>
@@ -654,16 +663,10 @@
       <c r="K8" t="str">
         <v xml:space="preserve">GO button should be clicked </v>
       </c>
-      <c r="L8" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M8" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F9" t="str">
         <v>TS001TC002TSP003</v>
@@ -680,16 +683,10 @@
       <c r="K9" t="str">
         <v xml:space="preserve">New should be clicked </v>
       </c>
-      <c r="L9" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M9" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F10" t="str">
         <v>TS001TC002TSP004</v>
@@ -706,16 +703,10 @@
       <c r="K10" t="str">
         <v>P should be clicked and Customer No should be generated</v>
       </c>
-      <c r="L10" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M10" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F11" t="str">
         <v>TS001TC002TSP005</v>
@@ -735,16 +726,10 @@
       <c r="K11" t="str">
         <v xml:space="preserve">First name should be filled </v>
       </c>
-      <c r="L11" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M11" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F12" t="str">
         <v>TS001TC002TSP006</v>
@@ -764,16 +749,10 @@
       <c r="K12" t="str">
         <v xml:space="preserve">Short namae should be filled </v>
       </c>
-      <c r="L12" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M12" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F13" t="str">
         <v>TS001TC002TSP007</v>
@@ -793,16 +772,10 @@
       <c r="K13" t="str">
         <v>Customer category  should be filled</v>
       </c>
-      <c r="L13" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M13" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F14" t="str">
         <v>TS001TC002TSP008</v>
@@ -822,16 +795,10 @@
       <c r="K14" t="str">
         <v xml:space="preserve">Address1 should be filled </v>
       </c>
-      <c r="L14" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M14" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F15" t="str">
         <v>TS001TC002TSP009</v>
@@ -851,16 +818,10 @@
       <c r="K15" t="str">
         <v xml:space="preserve">Country should be filled </v>
       </c>
-      <c r="L15" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M15" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F16" t="str">
         <v>TS001TC002TSP010</v>
@@ -880,16 +841,10 @@
       <c r="K16" t="str">
         <v xml:space="preserve">Nationality should be filled </v>
       </c>
-      <c r="L16" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M16" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F17" t="str">
         <v>TS001TC002TSP011</v>
@@ -909,16 +864,10 @@
       <c r="K17" t="str">
         <v xml:space="preserve">Gender should clicked </v>
       </c>
-      <c r="L17" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M17" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F18" t="str">
         <v>TS001TC002TSP012</v>
@@ -938,16 +887,10 @@
       <c r="K18" t="str">
         <v xml:space="preserve">DOB should be entered </v>
       </c>
-      <c r="L18" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M18" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F19" t="str">
         <v>TS001TC002TSP013</v>
@@ -967,16 +910,10 @@
       <c r="K19" t="str">
         <v xml:space="preserve">Language should be entered </v>
       </c>
-      <c r="L19" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M19" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F20" t="str">
         <v>TS001TC002TSP014</v>
@@ -993,16 +930,10 @@
       <c r="K20" t="str">
         <v xml:space="preserve">Additional should be clicked </v>
       </c>
-      <c r="L20" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M20" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F21" t="str">
         <v>TS001TC002TSP015</v>
@@ -1022,16 +953,10 @@
       <c r="K21" t="str">
         <v xml:space="preserve">Location should be filled </v>
       </c>
-      <c r="L21" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M21" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F22" t="str">
         <v>TS001TC002TSP016</v>
@@ -1051,16 +976,10 @@
       <c r="K22" t="str">
         <v xml:space="preserve">Media should be filled </v>
       </c>
-      <c r="L22" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M22" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F23" t="str">
         <v>TS001TC002TSP017</v>
@@ -1077,16 +996,10 @@
       <c r="K23" t="str">
         <v xml:space="preserve">Save should be clicked </v>
       </c>
-      <c r="L23" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M23" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F24" t="str">
         <v>TS001TC002TSP018</v>
@@ -1103,16 +1016,10 @@
       <c r="K24" t="str">
         <v xml:space="preserve">Accept should be clicked </v>
       </c>
-      <c r="L24" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M24" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F25" t="str">
         <v>TS001TC002TSP003</v>
@@ -1129,16 +1036,10 @@
       <c r="K25" t="str">
         <v xml:space="preserve">Enter Query should be clicked </v>
       </c>
-      <c r="L25" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M25" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F26" t="str">
         <v>TS001TC002TSP004</v>
@@ -1158,16 +1059,10 @@
       <c r="K26" t="str">
         <v>Customer number should be entered</v>
       </c>
-      <c r="L26" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M26" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F27" t="str">
         <v>TS001TC002TSP005</v>
@@ -1187,16 +1082,10 @@
       <c r="K27" t="str">
         <v>Currency should be entered</v>
       </c>
-      <c r="L27" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M27" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F28" t="str">
         <v>TS001TC002TSP006</v>
@@ -1216,16 +1105,10 @@
       <c r="K28" t="str">
         <v>Account class should be entered</v>
       </c>
-      <c r="L28" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M28" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F29" t="str">
         <v>TS001TC002TSP007</v>
@@ -1242,16 +1125,10 @@
       <c r="K29" t="str">
         <v>Fetch button should be clicked</v>
       </c>
-      <c r="L29" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M29" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F30" t="str">
         <v>TS001TC002TSP008</v>
@@ -1271,16 +1148,10 @@
       <c r="K30" t="str">
         <v>Location should be entered</v>
       </c>
-      <c r="L30" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M30" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F31" t="str">
         <v>TS001TC002TSP009</v>
@@ -1300,16 +1171,10 @@
       <c r="K31" t="str">
         <v>Media should be entered</v>
       </c>
-      <c r="L31" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M31" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F32" t="str">
         <v>TS001TC002TSP010</v>
@@ -1329,16 +1194,10 @@
       <c r="K32" t="str">
         <v xml:space="preserve">Pool code should be entered </v>
       </c>
-      <c r="L32" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M32" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="F33" t="str">
         <v>TS001TC002TSP011</v>
@@ -1355,12 +1214,6 @@
       <c r="K33" t="str">
         <v xml:space="preserve">Save and Select accept should be clicked </v>
       </c>
-      <c r="L33" t="str">
-        <v>SKIPPED</v>
-      </c>
-      <c r="M33" t="str">
-        <v>TO BE EXECUTED = NO</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1393,21 +1246,6 @@
       <c r="K34" t="str">
         <v>URL should be opened</v>
       </c>
-      <c r="L34" t="str">
-        <v>PASS</v>
-      </c>
-      <c r="M34" t="str">
-        <v/>
-      </c>
-      <c r="N34" t="str">
-        <v>Opened: https://www.flipkart.com/</v>
-      </c>
-      <c r="O34" t="str">
-        <v>screenshots/STEP_33.png</v>
-      </c>
-      <c r="P34" t="str">
-        <v>page_sources/STEP_33_source.html</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1428,21 +1266,6 @@
       <c r="K35" t="str">
         <v>Login should be clicked</v>
       </c>
-      <c r="L35" t="str">
-        <v>PASS</v>
-      </c>
-      <c r="M35" t="str">
-        <v/>
-      </c>
-      <c r="N35" t="str">
-        <v>Clicked: Login</v>
-      </c>
-      <c r="O35" t="str">
-        <v>screenshots/STEP_34.png</v>
-      </c>
-      <c r="P35" t="str">
-        <v>page_sources/STEP_34_source.html</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1463,21 +1286,6 @@
       <c r="K36" t="str">
         <v>Men should be clicked</v>
       </c>
-      <c r="L36" t="str">
-        <v>PASS</v>
-      </c>
-      <c r="M36" t="str">
-        <v/>
-      </c>
-      <c r="N36" t="str">
-        <v>Clicked: Men</v>
-      </c>
-      <c r="O36" t="str">
-        <v>screenshots/STEP_35.png</v>
-      </c>
-      <c r="P36" t="str">
-        <v>page_sources/STEP_35_source.html</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1498,21 +1306,6 @@
       <c r="K37" t="str">
         <v>Running shoes should be clicked</v>
       </c>
-      <c r="L37" t="str">
-        <v>PASS</v>
-      </c>
-      <c r="M37" t="str">
-        <v/>
-      </c>
-      <c r="N37" t="str">
-        <v>Clicked: Running Shoes</v>
-      </c>
-      <c r="O37" t="str">
-        <v>screenshots/STEP_36.png</v>
-      </c>
-      <c r="P37" t="str">
-        <v>page_sources/STEP_36_source.html</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1533,21 +1326,6 @@
       <c r="K38" t="str">
         <v xml:space="preserve">COLOR should be clicked </v>
       </c>
-      <c r="L38" t="str">
-        <v>PASS</v>
-      </c>
-      <c r="M38" t="str">
-        <v/>
-      </c>
-      <c r="N38" t="str">
-        <v>Clicked: COLOR</v>
-      </c>
-      <c r="O38" t="str">
-        <v>screenshots/STEP_37.png</v>
-      </c>
-      <c r="P38" t="str">
-        <v>page_sources/STEP_37_source.html</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1568,21 +1346,6 @@
       <c r="K39" t="str">
         <v>Blue should be selected</v>
       </c>
-      <c r="L39" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="M39" t="str">
-        <v>Could not click element</v>
-      </c>
-      <c r="N39" t="str">
-        <v>Failed to click: Blue</v>
-      </c>
-      <c r="O39" t="str">
-        <v>screenshots/STEP_38.png</v>
-      </c>
-      <c r="P39" t="str">
-        <v>page_sources/STEP_38_source.html</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1602,21 +1365,6 @@
       </c>
       <c r="K40" t="str">
         <v xml:space="preserve">Best seller product should be clicked </v>
-      </c>
-      <c r="L40" t="str">
-        <v>FAIL</v>
-      </c>
-      <c r="M40" t="str">
-        <v>Could not click element</v>
-      </c>
-      <c r="N40" t="str">
-        <v>Failed to click: BestSeller</v>
-      </c>
-      <c r="O40" t="str">
-        <v>screenshots/STEP_39.png</v>
-      </c>
-      <c r="P40" t="str">
-        <v>page_sources/STEP_39_source.html</v>
       </c>
     </row>
   </sheetData>

--- a/RESULTS/Test_Results.xlsx
+++ b/RESULTS/Test_Results.xlsx
@@ -487,19 +487,19 @@
         <v xml:space="preserve">URL is opened </v>
       </c>
       <c r="L2" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="M2" t="str">
-        <v>Cannot read properties of null (reading 'isClosed')</v>
+        <v/>
       </c>
       <c r="N2" t="str">
-        <v>Cannot read properties of null (reading 'isClosed')</v>
+        <v>Opened: https://10.0.49.147:7504/FCJNeoWeb/SMMDIFRM.jsp</v>
       </c>
       <c r="O2" t="str">
-        <v/>
+        <v>screenshots/STEP_1.png</v>
       </c>
       <c r="P2" t="str">
-        <v/>
+        <v>page_sources/STEP_1_source.html</v>
       </c>
     </row>
     <row r="3">
@@ -524,6 +524,12 @@
       <c r="K3" t="str">
         <v>username should be entered</v>
       </c>
+      <c r="L3" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M3" t="str">
+        <v>TO BE EXECUTED = "NO" (not YES)</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -547,6 +553,12 @@
       <c r="K4" t="str">
         <v>password should be entered</v>
       </c>
+      <c r="L4" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M4" t="str">
+        <v>TO BE EXECUTED = "NO" (not YES)</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -567,6 +579,12 @@
       <c r="K5" t="str">
         <v>Sign in button should be clicked</v>
       </c>
+      <c r="L5" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M5" t="str">
+        <v>TO BE EXECUTED = "NO" (not YES)</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -584,6 +602,12 @@
       <c r="I6" t="str">
         <v>Ok</v>
       </c>
+      <c r="L6" t="str">
+        <v>SKIPPED</v>
+      </c>
+      <c r="M6" t="str">
+        <v>TO BE EXECUTED = "NO" (not YES)</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -613,6 +637,21 @@
       <c r="K7" t="str">
         <v>Fucntion Id should be filled with STDCIF</v>
       </c>
+      <c r="L7" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v>Filled: Function Id</v>
+      </c>
+      <c r="O7" t="str">
+        <v>screenshots/STEP_6.png</v>
+      </c>
+      <c r="P7" t="str">
+        <v>page_sources/STEP_6_source.html</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -633,6 +672,21 @@
       <c r="K8" t="str">
         <v xml:space="preserve">GO button should be clicked </v>
       </c>
+      <c r="L8" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v>Clicked: Go</v>
+      </c>
+      <c r="O8" t="str">
+        <v>screenshots/STEP_7.png</v>
+      </c>
+      <c r="P8" t="str">
+        <v>page_sources/STEP_7_source.html</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -653,6 +707,21 @@
       <c r="K9" t="str">
         <v xml:space="preserve">New should be clicked </v>
       </c>
+      <c r="L9" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v>Clicked: New</v>
+      </c>
+      <c r="O9" t="str">
+        <v>screenshots/STEP_8.png</v>
+      </c>
+      <c r="P9" t="str">
+        <v>page_sources/STEP_8_source.html</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -673,6 +742,21 @@
       <c r="K10" t="str">
         <v>P should be clicked and Customer No should be generated</v>
       </c>
+      <c r="L10" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v>Clicked: P</v>
+      </c>
+      <c r="O10" t="str">
+        <v>screenshots/STEP_9.png</v>
+      </c>
+      <c r="P10" t="str">
+        <v>page_sources/STEP_9_source.html</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -696,6 +780,21 @@
       <c r="K11" t="str">
         <v xml:space="preserve">First name should be filled </v>
       </c>
+      <c r="L11" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v>Filled: Full Name</v>
+      </c>
+      <c r="O11" t="str">
+        <v>screenshots/STEP_10.png</v>
+      </c>
+      <c r="P11" t="str">
+        <v>page_sources/STEP_10_source.html</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -719,6 +818,21 @@
       <c r="K12" t="str">
         <v xml:space="preserve">Short namae should be filled </v>
       </c>
+      <c r="L12" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v>Filled: Short Name</v>
+      </c>
+      <c r="O12" t="str">
+        <v>screenshots/STEP_11.png</v>
+      </c>
+      <c r="P12" t="str">
+        <v>page_sources/STEP_11_source.html</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -741,6 +855,21 @@
       </c>
       <c r="K13" t="str">
         <v>Customer category  should be filled</v>
+      </c>
+      <c r="L13" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v>Filled: Customer Category</v>
+      </c>
+      <c r="O13" t="str">
+        <v>screenshots/STEP_12.png</v>
+      </c>
+      <c r="P13" t="str">
+        <v>page_sources/STEP_12_source.html</v>
       </c>
     </row>
     <row r="14">

--- a/RESULTS/Test_Results.xlsx
+++ b/RESULTS/Test_Results.xlsx
@@ -638,19 +638,19 @@
         <v>Fucntion Id should be filled with STDCIF</v>
       </c>
       <c r="L7" t="str">
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="M7" t="str">
-        <v>page.waitForTimeout: Target page, context or browser has been closed</v>
+        <v/>
       </c>
       <c r="N7" t="str">
-        <v>page.waitForTimeout: Target page, context or browser has been closed</v>
+        <v>Filled: Function Id</v>
       </c>
       <c r="O7" t="str">
-        <v/>
+        <v>screenshots/STEP_6.png</v>
       </c>
       <c r="P7" t="str">
-        <v/>
+        <v>page_sources/STEP_6_source.html</v>
       </c>
     </row>
     <row r="8">
@@ -672,6 +672,21 @@
       <c r="K8" t="str">
         <v xml:space="preserve">GO button should be clicked </v>
       </c>
+      <c r="L8" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v>Clicked: Go</v>
+      </c>
+      <c r="O8" t="str">
+        <v>screenshots/STEP_7.png</v>
+      </c>
+      <c r="P8" t="str">
+        <v>page_sources/STEP_7_source.html</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -692,6 +707,21 @@
       <c r="K9" t="str">
         <v xml:space="preserve">New should be clicked </v>
       </c>
+      <c r="L9" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v>Clicked: New</v>
+      </c>
+      <c r="O9" t="str">
+        <v>screenshots/STEP_8.png</v>
+      </c>
+      <c r="P9" t="str">
+        <v>page_sources/STEP_8_source.html</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -712,6 +742,21 @@
       <c r="K10" t="str">
         <v>P should be clicked and Customer No should be generated</v>
       </c>
+      <c r="L10" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v>Clicked: P</v>
+      </c>
+      <c r="O10" t="str">
+        <v>screenshots/STEP_9.png</v>
+      </c>
+      <c r="P10" t="str">
+        <v>page_sources/STEP_9_source.html</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -735,6 +780,21 @@
       <c r="K11" t="str">
         <v xml:space="preserve">First name should be filled </v>
       </c>
+      <c r="L11" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v>Filled: Full Name</v>
+      </c>
+      <c r="O11" t="str">
+        <v>screenshots/STEP_10.png</v>
+      </c>
+      <c r="P11" t="str">
+        <v>page_sources/STEP_10_source.html</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -758,6 +818,21 @@
       <c r="K12" t="str">
         <v xml:space="preserve">Short namae should be filled </v>
       </c>
+      <c r="L12" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v>Filled: Short Name</v>
+      </c>
+      <c r="O12" t="str">
+        <v>screenshots/STEP_11.png</v>
+      </c>
+      <c r="P12" t="str">
+        <v>page_sources/STEP_11_source.html</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -780,6 +855,21 @@
       </c>
       <c r="K13" t="str">
         <v>Customer category  should be filled</v>
+      </c>
+      <c r="L13" t="str">
+        <v>PASS</v>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v>Filled: Customer Category</v>
+      </c>
+      <c r="O13" t="str">
+        <v>screenshots/STEP_12.png</v>
+      </c>
+      <c r="P13" t="str">
+        <v>page_sources/STEP_12_source.html</v>
       </c>
     </row>
     <row r="14">
